--- a/RAM.xlsx
+++ b/RAM.xlsx
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1037,459 +1037,459 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>36777</v>
+        <v>36861</v>
       </c>
       <c r="B28" s="1">
-        <v>36871</v>
+        <v>37012</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
       <c r="F28">
-        <v>44.766000000000005</v>
+        <v>52.475700000000003</v>
       </c>
       <c r="G28">
-        <v>0.74609999999999999</v>
+        <v>0.49740000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>36861</v>
+        <v>37000</v>
       </c>
       <c r="B29" s="1">
-        <v>37012</v>
+        <v>37096</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29">
-        <v>52.475700000000003</v>
+        <v>38.548500000000004</v>
       </c>
       <c r="G29">
-        <v>0.49740000000000006</v>
+        <v>0.74609999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>37000</v>
+        <v>37084</v>
       </c>
       <c r="B30" s="1">
-        <v>37096</v>
+        <v>37125</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
       </c>
       <c r="F30">
-        <v>38.548500000000004</v>
+        <v>18.826590000000003</v>
       </c>
       <c r="G30">
-        <v>0.74609999999999999</v>
+        <v>0.22383</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>37084</v>
+        <v>37113</v>
       </c>
       <c r="B31" s="1">
-        <v>37125</v>
+        <v>37242</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31">
-        <v>18.826590000000003</v>
+        <v>52.326479999999997</v>
       </c>
       <c r="G31">
-        <v>0.22383</v>
+        <v>0.62175000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>37113</v>
+        <v>37230</v>
       </c>
       <c r="B32" s="1">
-        <v>37242</v>
+        <v>37365</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
       <c r="F32">
-        <v>52.326479999999997</v>
+        <v>45.686190000000003</v>
       </c>
       <c r="G32">
-        <v>0.62175000000000002</v>
+        <v>1.16889</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>37230</v>
+        <v>37354</v>
       </c>
       <c r="B33" s="1">
-        <v>37365</v>
+        <v>37426</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
       <c r="F33">
-        <v>45.686190000000003</v>
+        <v>24.248250000000002</v>
       </c>
       <c r="G33">
-        <v>1.16889</v>
+        <v>0.62175000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>37354</v>
+        <v>37412</v>
       </c>
       <c r="B34" s="1">
-        <v>37426</v>
+        <v>37597</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
       <c r="F34">
-        <v>24.248250000000002</v>
+        <v>68.840159999999997</v>
       </c>
       <c r="G34">
-        <v>0.62175000000000002</v>
+        <v>1.3181100000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>37412</v>
+        <v>37584</v>
       </c>
       <c r="B35" s="1">
-        <v>37597</v>
+        <v>37745</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35">
-        <v>68.840159999999997</v>
+        <v>58.121190000000006</v>
       </c>
       <c r="G35">
-        <v>1.3181100000000001</v>
+        <v>0.64662000000000008</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>37584</v>
+        <v>37746</v>
       </c>
       <c r="B36" s="1">
-        <v>37745</v>
+        <v>37911</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36">
-        <v>58.121190000000006</v>
+        <v>71.0411</v>
       </c>
       <c r="G36">
-        <v>0.64662000000000008</v>
+        <v>0.86931999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>37746</v>
+        <v>37912</v>
       </c>
       <c r="B37" s="1">
-        <v>37911</v>
+        <v>38107</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>71.0411</v>
+        <v>83.961119999999994</v>
       </c>
       <c r="G37">
-        <v>0.86931999999999998</v>
+        <v>1.2932400000000002</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>37912</v>
+        <v>38096</v>
       </c>
       <c r="B38" s="1">
-        <v>38107</v>
+        <v>38284</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38">
-        <v>83.961119999999994</v>
+        <v>79.857569999999996</v>
       </c>
       <c r="G38">
-        <v>1.2932400000000002</v>
+        <v>0.82071000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>38096</v>
+        <v>38274</v>
       </c>
       <c r="B39" s="1">
-        <v>38284</v>
+        <v>38466</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39">
-        <v>79.857569999999996</v>
+        <v>86.124810000000011</v>
       </c>
       <c r="G39">
-        <v>0.82071000000000005</v>
+        <v>1.5916800000000002</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>38274</v>
+        <v>38457</v>
       </c>
       <c r="B40" s="1">
-        <v>38466</v>
+        <v>38636</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40">
-        <v>86.124810000000011</v>
+        <v>79.011989999999997</v>
       </c>
       <c r="G40">
-        <v>1.5916800000000002</v>
+        <v>0.64662000000000008</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>38457</v>
+        <v>38626</v>
       </c>
       <c r="B41" s="1">
-        <v>38636</v>
+        <v>38815</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41">
-        <v>79.011989999999997</v>
+        <v>82.817099999999996</v>
       </c>
       <c r="G41">
-        <v>0.64662000000000008</v>
+        <v>1.2435</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>38626</v>
+        <v>38806</v>
       </c>
       <c r="B42" s="1">
-        <v>38815</v>
+        <v>38989</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42">
-        <v>82.817099999999996</v>
+        <v>78.365370000000013</v>
       </c>
       <c r="G42">
-        <v>1.2435</v>
+        <v>1.2932400000000002</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>38806</v>
+        <v>38978</v>
       </c>
       <c r="B43" s="1">
-        <v>38989</v>
+        <v>39315</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43">
-        <v>78.365370000000013</v>
+        <v>144.04704000000001</v>
       </c>
       <c r="G43">
-        <v>1.2932400000000002</v>
+        <v>2.4123899999999998</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>38978</v>
+        <v>39302</v>
       </c>
       <c r="B44" s="1">
-        <v>39315</v>
+        <v>39534</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44">
-        <v>337</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44">
-        <v>144.04704000000001</v>
+        <v>106.21977000000001</v>
       </c>
       <c r="G44">
-        <v>2.4123899999999998</v>
+        <v>1.0196700000000001</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>39302</v>
+        <v>39518</v>
       </c>
       <c r="B45" s="1">
-        <v>39534</v>
+        <v>39782</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45">
-        <v>106.21977000000001</v>
+        <v>128.92608000000001</v>
       </c>
       <c r="G45">
-        <v>1.0196700000000001</v>
+        <v>1.2186300000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>39518</v>
+        <v>39767</v>
       </c>
       <c r="B46" s="1">
-        <v>39782</v>
+        <v>40025</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>128.92608000000001</v>
+        <v>144.39522000000002</v>
       </c>
       <c r="G46">
-        <v>1.2186300000000001</v>
+        <v>2.4123899999999998</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>39767</v>
+        <v>40009</v>
       </c>
       <c r="B47" s="1">
-        <v>40025</v>
+        <v>40231</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47">
-        <v>144.39522000000002</v>
+        <v>123.47955</v>
       </c>
       <c r="G47">
         <v>2.4123899999999998</v>
@@ -1497,206 +1497,206 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>40009</v>
+        <v>40217</v>
       </c>
       <c r="B48" s="1">
-        <v>40231</v>
+        <v>40611</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48">
-        <v>221</v>
+        <v>394</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48">
-        <v>123.47955</v>
+        <v>203.934</v>
       </c>
       <c r="G48">
-        <v>2.4123899999999998</v>
+        <v>3.2331000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>40217</v>
+        <v>40598</v>
       </c>
       <c r="B49" s="1">
-        <v>40611</v>
+        <v>40869</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49">
-        <v>394</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49">
-        <v>203.934</v>
+        <v>147.7278</v>
       </c>
       <c r="G49">
-        <v>3.2331000000000003</v>
+        <v>2.7357000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>40598</v>
+        <v>40846</v>
       </c>
       <c r="B50" s="1">
-        <v>40869</v>
+        <v>41091</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50">
-        <v>147.7278</v>
+        <v>159.19287000000003</v>
       </c>
       <c r="G50">
-        <v>2.7357000000000005</v>
+        <v>3.9294600000000002</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>40846</v>
+        <v>41044</v>
       </c>
       <c r="B51" s="1">
-        <v>41091</v>
+        <v>41232</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>159.19287000000003</v>
+        <v>127.0857</v>
       </c>
       <c r="G51">
-        <v>3.9294600000000002</v>
+        <v>2.08908</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B52" s="1">
-        <v>41232</v>
+        <v>41375</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
       <c r="F52">
-        <v>127.0857</v>
+        <v>110.44767</v>
       </c>
       <c r="G52">
-        <v>2.08908</v>
+        <v>3.8051100000000004</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>41228</v>
+        <v>41375</v>
       </c>
       <c r="B53" s="1">
-        <v>41375</v>
+        <v>41585</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
       </c>
       <c r="F53">
-        <v>110.44767</v>
+        <v>154.06965000000002</v>
       </c>
       <c r="G53">
-        <v>3.8051100000000004</v>
+        <v>3.5564100000000001</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>41375</v>
+        <v>36861</v>
       </c>
       <c r="B54" s="1">
-        <v>41585</v>
+        <v>37012</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
       </c>
       <c r="F54">
-        <v>154.06965000000002</v>
+        <v>48.258000000000003</v>
       </c>
       <c r="G54">
-        <v>3.5564100000000001</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>36777</v>
+        <v>37000</v>
       </c>
       <c r="B55" s="1">
-        <v>36871</v>
+        <v>37096</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
       </c>
       <c r="F55">
-        <v>34.853000000000002</v>
+        <v>35.389199999999995</v>
       </c>
       <c r="G55">
-        <v>0.53620000000000001</v>
+        <v>0.80430000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>36861</v>
+        <v>37084</v>
       </c>
       <c r="B56" s="1">
-        <v>37012</v>
+        <v>37125</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
       </c>
       <c r="F56">
-        <v>48.258000000000003</v>
+        <v>17.185210000000001</v>
       </c>
       <c r="G56">
         <v>0.2681</v>
@@ -1704,232 +1704,232 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>37000</v>
+        <v>37113</v>
       </c>
       <c r="B57" s="1">
-        <v>37096</v>
+        <v>37242</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
       </c>
       <c r="F57">
-        <v>35.389199999999995</v>
+        <v>46.837069999999997</v>
       </c>
       <c r="G57">
-        <v>0.80430000000000001</v>
+        <v>0.64344000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>37084</v>
+        <v>37230</v>
       </c>
       <c r="B58" s="1">
-        <v>37125</v>
+        <v>37365</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
       </c>
       <c r="F58">
-        <v>17.185210000000001</v>
+        <v>42.922810000000005</v>
       </c>
       <c r="G58">
-        <v>0.2681</v>
+        <v>1.09921</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>37113</v>
+        <v>37354</v>
       </c>
       <c r="B59" s="1">
-        <v>37242</v>
+        <v>37426</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
       </c>
       <c r="F59">
-        <v>46.837069999999997</v>
+        <v>22.54721</v>
       </c>
       <c r="G59">
-        <v>0.64344000000000001</v>
+        <v>0.56301000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>37230</v>
+        <v>37412</v>
       </c>
       <c r="B60" s="1">
-        <v>37365</v>
+        <v>37597</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
       </c>
       <c r="F60">
-        <v>42.922810000000005</v>
+        <v>38.594999999999999</v>
       </c>
       <c r="G60">
-        <v>1.09921</v>
+        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>37354</v>
+        <v>37584</v>
       </c>
       <c r="B61" s="1">
-        <v>37426</v>
+        <v>37745</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
       </c>
       <c r="F61">
-        <v>22.54721</v>
+        <v>54.102580000000003</v>
       </c>
       <c r="G61">
-        <v>0.56301000000000001</v>
+        <v>0.83111000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>37584</v>
+        <v>37746</v>
       </c>
       <c r="B62" s="1">
-        <v>37745</v>
+        <v>37911</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
       </c>
       <c r="F62">
-        <v>54.102580000000003</v>
+        <v>62.802399999999999</v>
       </c>
       <c r="G62">
-        <v>0.83111000000000002</v>
+        <v>0.56979999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>37746</v>
+        <v>37912</v>
       </c>
       <c r="B63" s="1">
-        <v>37911</v>
+        <v>38107</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63">
-        <v>62.802399999999999</v>
+        <v>71.50227000000001</v>
       </c>
       <c r="G63">
-        <v>0.56979999999999997</v>
+        <v>0.37534000000000006</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>37912</v>
+        <v>38096</v>
       </c>
       <c r="B64" s="1">
-        <v>38107</v>
+        <v>38284</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
       <c r="F64">
-        <v>71.50227000000001</v>
+        <v>72.306569999999994</v>
       </c>
       <c r="G64">
-        <v>0.37534000000000006</v>
+        <v>0.61663000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>38096</v>
+        <v>38274</v>
       </c>
       <c r="B65" s="1">
-        <v>38284</v>
+        <v>38466</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
       <c r="F65">
-        <v>72.306569999999994</v>
+        <v>79.438029999999998</v>
       </c>
       <c r="G65">
-        <v>0.61663000000000001</v>
+        <v>0.48258000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>38274</v>
+        <v>38457</v>
       </c>
       <c r="B66" s="1">
-        <v>38466</v>
+        <v>38636</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
       </c>
       <c r="F66">
-        <v>79.438029999999998</v>
+        <v>77.658000000000001</v>
       </c>
       <c r="G66">
-        <v>0.48258000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7">
